--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Planned End Date</t>
   </si>
@@ -77,16 +77,7 @@
     <t>Simplifying Project Defintion</t>
   </si>
   <si>
-    <t>18/07/2016</t>
-  </si>
-  <si>
-    <t>22/07/2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gantt chart </t>
-  </si>
-  <si>
-    <t>20/07/2016</t>
   </si>
   <si>
     <t>Further define the project so it is clearer to see what direction to take, will finish as specified but continuous updates will be required</t>
@@ -125,31 +116,7 @@
     <t>Theoretical design as the final design will be based on this however will need to accomidate the project as it stands when an enclosure is needed</t>
   </si>
   <si>
-    <t>25/07/2016</t>
-  </si>
-  <si>
-    <t>26/07/2016</t>
-  </si>
-  <si>
-    <t>27/07/2016</t>
-  </si>
-  <si>
-    <t>28/07/216</t>
-  </si>
-  <si>
-    <t>28/07/2016</t>
-  </si>
-  <si>
-    <t>29/07/2016</t>
-  </si>
-  <si>
-    <t>30/07/2016</t>
-  </si>
-  <si>
     <t>Critical review of papers and reports on similar material to this report, will be ongoing</t>
-  </si>
-  <si>
-    <t>26/08/2016</t>
   </si>
   <si>
     <t>Column52</t>
@@ -192,6 +159,9 @@
   </si>
   <si>
     <t>sick and too many things were strarted on this day</t>
+  </si>
+  <si>
+    <t>everything got pushed back one day because of being sick</t>
   </si>
 </sst>
 </file>
@@ -616,18 +586,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J1330"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="93.42578125" customWidth="1"/>
-    <col min="4" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="59.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="3" max="3" width="93.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="59.28515625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -653,10 +625,10 @@
         <v>3</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>4</v>
@@ -682,10 +654,10 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -708,21 +680,21 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>17</v>
+      <c r="D8" s="9">
+        <v>42569</v>
+      </c>
+      <c r="E8" s="9">
+        <v>42573</v>
+      </c>
+      <c r="F8" s="9">
+        <v>42569</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="9" t="s">
-        <v>18</v>
+      <c r="I8" s="9">
+        <v>42573</v>
       </c>
       <c r="J8" s="5">
         <v>0.9</v>
@@ -730,25 +702,25 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
-        <v>22</v>
+      <c r="D9" s="9">
+        <v>42571</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>20</v>
+      <c r="E9" s="9">
+        <v>42580</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>20</v>
+      <c r="F9" s="9">
+        <v>42571</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="5">
@@ -757,7 +729,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -769,37 +741,41 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>33</v>
+      <c r="D11" s="9">
+        <v>42577</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>38</v>
+      <c r="E11" s="9">
+        <v>42580</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="9"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>33</v>
+      <c r="D12" s="9">
+        <v>42577</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>35</v>
+      <c r="E12" s="9">
+        <v>42579</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="9">
+        <v>42577</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="9"/>
@@ -807,37 +783,37 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>33</v>
+      <c r="D13" s="9">
+        <v>42577</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>41</v>
+      <c r="E13" s="9">
+        <v>42608</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>39</v>
+      <c r="D14" s="9">
+        <v>42581</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>39</v>
+      <c r="E14" s="9">
+        <v>42581</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="4"/>
@@ -847,7 +823,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -859,13 +835,13 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>34</v>
+      <c r="D16" s="9">
+        <v>42578</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>37</v>
+      <c r="E16" s="9">
+        <v>42580</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="4"/>
@@ -875,13 +851,13 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>35</v>
+      <c r="D17" s="9">
+        <v>42579</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>38</v>
+      <c r="E17" s="9">
+        <v>42581</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="4"/>
@@ -891,13 +867,13 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>36</v>
+      <c r="D18" s="9">
+        <v>42580</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>39</v>
+      <c r="E18" s="9">
+        <v>42582</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="4"/>
@@ -907,7 +883,7 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -919,10 +895,10 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D21" s="9">
         <v>42585</v>
@@ -1073,10 +1049,10 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -587,7 +587,7 @@
   <dimension ref="B2:J1330"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +752,9 @@
       <c r="E11" s="9">
         <v>42580</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="9">
+        <v>42577</v>
+      </c>
       <c r="G11" s="4" t="s">
         <v>45</v>
       </c>
